--- a/QuestionsTagging.xlsx
+++ b/QuestionsTagging.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65C4CF8D-3E15-4FDA-ACD2-98787FEE8F5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D022C4A-2708-4835-B293-3C2767F7C668}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6350" yWindow="3830" windowWidth="25230" windowHeight="12840" activeTab="4" xr2:uid="{1CDD4A1B-9E45-4E07-A229-57F56A3F3E50}"/>
+    <workbookView xWindow="65265" yWindow="11670" windowWidth="21480" windowHeight="19455" activeTab="4" xr2:uid="{1CDD4A1B-9E45-4E07-A229-57F56A3F3E50}"/>
   </bookViews>
   <sheets>
     <sheet name="PracticeAgain" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="83">
   <si>
     <t>Link</t>
   </si>
@@ -267,6 +267,18 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/continuous-subarray-sum/</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>PreviouslyDone</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>Retry DP based solution</t>
   </si>
 </sst>
 </file>
@@ -290,12 +302,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -311,9 +335,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -983,128 +1011,193 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72854ED1-D842-42ED-828A-F50C78B40F7E}">
-  <dimension ref="A1:A19"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="65.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+      <c r="B2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
+      <c r="B3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="B5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
+      <c r="B6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
+      <c r="B7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+      <c r="B8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
+      <c r="B9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="4" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
+      <c r="B10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="4" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
+      <c r="B11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
+      <c r="B12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
+      <c r="B13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
+      <c r="B14" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" s="4" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
+      <c r="B15" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" s="5" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
+      <c r="B16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A17" s="1" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A18" s="1" t="s">
+      <c r="C18" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
+      <c r="B19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
         <v>64</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A6" r:id="rId1" xr:uid="{CD0F3EF0-4897-4E6E-8EA7-C24D49CA43DE}"/>
-    <hyperlink ref="A3" r:id="rId2" xr:uid="{5C4C8B1C-ACD3-424D-9B2B-8FE065A3EB7A}"/>
-    <hyperlink ref="A2" r:id="rId3" xr:uid="{2B5641F3-4924-4059-B481-32E9EA01BE38}"/>
-    <hyperlink ref="A1" r:id="rId4" xr:uid="{F3DAE0CB-0FCA-4662-9B7D-6C375D73D412}"/>
-    <hyperlink ref="A16" r:id="rId5" xr:uid="{1191C7AE-8E61-4894-A8DA-49ED1239A832}"/>
-    <hyperlink ref="A9" r:id="rId6" xr:uid="{5F560CA7-DFCE-44AE-9498-5E7281F379E1}"/>
-    <hyperlink ref="A10" r:id="rId7" xr:uid="{24FAD825-9516-464B-BBB4-E1FBBA674B7B}"/>
-    <hyperlink ref="A11" r:id="rId8" xr:uid="{83C5C3F4-7DE1-4ED2-AD00-B03D126A4F3F}"/>
-    <hyperlink ref="A12" r:id="rId9" xr:uid="{F43A8284-24B7-4AAA-87DA-4658CEBE3844}"/>
-    <hyperlink ref="A13" r:id="rId10" xr:uid="{74159B35-E3C5-478F-BC20-7539F38D29AE}"/>
-    <hyperlink ref="A14" r:id="rId11" xr:uid="{9B916CC6-2DD2-42CD-89B4-BA7309A0EBC9}"/>
-    <hyperlink ref="A15" r:id="rId12" xr:uid="{5CCF21EB-36FA-4CEA-99FB-8E0942B4F182}"/>
-    <hyperlink ref="A17" r:id="rId13" xr:uid="{6AF572E0-E1BA-4AFF-9872-5B1CE32A287C}"/>
-    <hyperlink ref="A18" r:id="rId14" xr:uid="{683A0BCF-4C76-46A0-89D1-C6D77823E79A}"/>
+    <hyperlink ref="A7" r:id="rId1" xr:uid="{CD0F3EF0-4897-4E6E-8EA7-C24D49CA43DE}"/>
+    <hyperlink ref="A4" r:id="rId2" xr:uid="{5C4C8B1C-ACD3-424D-9B2B-8FE065A3EB7A}"/>
+    <hyperlink ref="A3" r:id="rId3" xr:uid="{2B5641F3-4924-4059-B481-32E9EA01BE38}"/>
+    <hyperlink ref="A2" r:id="rId4" xr:uid="{F3DAE0CB-0FCA-4662-9B7D-6C375D73D412}"/>
+    <hyperlink ref="A17" r:id="rId5" xr:uid="{1191C7AE-8E61-4894-A8DA-49ED1239A832}"/>
+    <hyperlink ref="A10" r:id="rId6" xr:uid="{5F560CA7-DFCE-44AE-9498-5E7281F379E1}"/>
+    <hyperlink ref="A11" r:id="rId7" xr:uid="{24FAD825-9516-464B-BBB4-E1FBBA674B7B}"/>
+    <hyperlink ref="A12" r:id="rId8" xr:uid="{83C5C3F4-7DE1-4ED2-AD00-B03D126A4F3F}"/>
+    <hyperlink ref="A13" r:id="rId9" xr:uid="{F43A8284-24B7-4AAA-87DA-4658CEBE3844}"/>
+    <hyperlink ref="A14" r:id="rId10" xr:uid="{74159B35-E3C5-478F-BC20-7539F38D29AE}"/>
+    <hyperlink ref="A15" r:id="rId11" xr:uid="{9B916CC6-2DD2-42CD-89B4-BA7309A0EBC9}"/>
+    <hyperlink ref="A16" r:id="rId12" xr:uid="{5CCF21EB-36FA-4CEA-99FB-8E0942B4F182}"/>
+    <hyperlink ref="A18" r:id="rId13" xr:uid="{6AF572E0-E1BA-4AFF-9872-5B1CE32A287C}"/>
+    <hyperlink ref="A19" r:id="rId14" xr:uid="{683A0BCF-4C76-46A0-89D1-C6D77823E79A}"/>
+    <hyperlink ref="A5" r:id="rId15" xr:uid="{302FF60F-1D70-4E47-9EE1-3C3E74186E1C}"/>
+    <hyperlink ref="A6" r:id="rId16" xr:uid="{D439C68A-1A1C-4183-8AC5-4943988E9B7D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
